--- a/仕様書/リソースリスト（絵）.xlsx
+++ b/仕様書/リソースリスト（絵）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>必要な大きさ</t>
     <rPh sb="0" eb="2">
@@ -144,18 +144,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敗北リザルト</t>
-    <rPh sb="0" eb="2">
-      <t>ハイボク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルロゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームロゴ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -173,21 +162,145 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小さいオロチの顔</t>
+    <t>マンション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布団はさむ洗濯ばさみ</t>
+    <rPh sb="0" eb="2">
+      <t>フトン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーションかどうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーションの内容</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７０×９７　　三つ</t>
+    <rPh sb="7" eb="8">
+      <t>ミッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１９２０×１０８０（ＦＵＬＬ　ＨＤ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９６０×７０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１５０×２００</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１５０×２００</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２５×７０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２５×７０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１５０×８０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入れたい要素</t>
     <rPh sb="0" eb="1">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マンション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マンション２</t>
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きいはさみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布団用ハサミ</t>
+  </si>
+  <si>
+    <t>七支刀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スサノオ</t>
+  </si>
+  <si>
+    <t>クシナダ姫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布団たたきにきた人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２００×２５０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５００×５００</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>噛みつく</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風で揺れる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気差分３枚</t>
+    <rPh sb="0" eb="2">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -204,219 +317,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>布団はさむ洗濯ばさみ</t>
+    <t>２００×９６０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布団</t>
     <rPh sb="0" eb="2">
       <t>フトン</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勝利リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物のつる</t>
     <rPh sb="0" eb="2">
-      <t>ショウリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーションかどうか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーションの内容</t>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３２×３２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>７０×９７　　三つ</t>
-    <rPh sb="7" eb="8">
-      <t>ミッ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１９２０×１０８０（ＦＵＬＬ　ＨＤ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>９６０×７０</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１５０×２００</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１５０×２００</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２５×７０</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２５×７０</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１５０×８０</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クレジット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗度メータ</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４８０×３２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非常用階段</t>
-    <rPh sb="0" eb="3">
-      <t>ヒジョウヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>せんたくばさみ単体</t>
-    <rPh sb="7" eb="9">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>７０×９６</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入れたい要素</t>
+      <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４００×２５０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９６×９６</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服の差分</t>
     <rPh sb="0" eb="1">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大きいはさみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>布団用ハサミ</t>
-  </si>
-  <si>
-    <t>七支刀</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スサノオ</t>
-  </si>
-  <si>
-    <t>クシナダ姫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>布団たたきにきた人</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非常用階段　ふた</t>
-    <rPh sb="0" eb="3">
-      <t>ヒジョウヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２００×２５０</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５００×５００</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５００×５００</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>噛みつく</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふくはすべてハンガーをつけてください
-ハンガーなしのもので２枚お願いします
-服が風で揺れる（縦軸）</t>
-    <rPh sb="30" eb="31">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
       <t>フク</t>
     </rPh>
-    <rPh sb="40" eb="41">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ユ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>タテジク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>風で揺れる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
+    <rPh sb="2" eb="4">
+      <t>サブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -806,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C19"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -820,16 +756,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -845,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -858,7 +794,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -866,23 +802,28 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -896,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -904,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -917,25 +858,20 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
@@ -943,11 +879,8 @@
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -957,11 +890,8 @@
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -971,9 +901,6 @@
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -983,7 +910,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -994,144 +921,111 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
